--- a/biology/Biochimie/Turanose/Turanose.xlsx
+++ b/biology/Biochimie/Turanose/Turanose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le turanose est un diholoside réducteur typiquement présent dans le miel[3]. Turanose est dérivé du mot Turan (Turkestan en Persan (fa)) et ose (autre mot pour sucre) référant à la présence de ce diholoside dans une manne du Turkestan[4].
+Le turanose est un diholoside réducteur typiquement présent dans le miel. Turanose est dérivé du mot Turan (Turkestan en Persan (fa)) et ose (autre mot pour sucre) référant à la présence de ce diholoside dans une manne du Turkestan.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le turanose est un isomère du saccharose, tous deux sont constitués d'une unité de glucose et d'une unité de fructose, seule la nature de la liaison osidique change : une liaison α(1→2) pour le saccharose et α(1→3) pour le turanose.
 </t>
@@ -543,10 +557,12 @@
           <t>Miel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le turanose est un sucre typique des miels et que l’on ne rencontre pratiquement que dans ceux-ci, il est  présent en faible quantité dans le miel, de 0 à 3 % suivant l'origine du miel[5].
-La quantification du turanose dans le miel permet de définir si un miel a été additionné de sirop de sucre[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le turanose est un sucre typique des miels et que l’on ne rencontre pratiquement que dans ceux-ci, il est  présent en faible quantité dans le miel, de 0 à 3 % suivant l'origine du miel.
+La quantification du turanose dans le miel permet de définir si un miel a été additionné de sirop de sucre.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le turanose est présent comme composant relativement mineur et un certain nombre d’oligosides tels que le mélézitose. L'hydrolyse partielle du mélézitose produit un mélange équimolaire de glucose et de turanose.
 </t>
@@ -606,9 +624,11 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le turanose n'est pas seulement une molécule à contenu énergétique mais aussi une molécule message. Avec d'autres oses, le turanose a été utilisé pour démêler les différentes voies de signalisation aboutissant dans les sites sources et puits du saccharose, dans la photosynthèse, et l'activation des MAPKs  (Mitogen-Activated Protein Kinases (en))[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le turanose n'est pas seulement une molécule à contenu énergétique mais aussi une molécule message. Avec d'autres oses, le turanose a été utilisé pour démêler les différentes voies de signalisation aboutissant dans les sites sources et puits du saccharose, dans la photosynthèse, et l'activation des MAPKs  (Mitogen-Activated Protein Kinases (en)).
 </t>
         </is>
       </c>
